--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_9_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_9_sawtooth_05_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1062348993201651</v>
+        <v>0.01898410260938044</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1062348993201651</v>
+        <v>0.01898410260938044</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.94067968070728</v>
+        <v>8.953648041754393</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.701223225875765, 13.582582587290325]</t>
+          <t>[1.1814557756461035, 16.725840307862683]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1244182082424767</v>
+        <v>0.02491860708663762</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1244182082424767</v>
+        <v>0.02491860708663762</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.119526511189155</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.3082637353117734, 1.0692107129334625]</t>
+          <t>[-2.918316298830158, -0.6289474781961548]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3084205746688418</v>
+        <v>0.003146685633408808</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3084205746688418</v>
+        <v>0.003146685633408808</v>
       </c>
       <c r="T2" t="n">
-        <v>11.42796436568958</v>
+        <v>12.93432694348022</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.362061175428295, 15.493867555950857]</t>
+          <t>[8.50525445095578, 17.36339943600465]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.920330608093053e-07</v>
+        <v>4.674902871482089e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>9.920330608093053e-07</v>
+        <v>4.674902871482089e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.630850850850962</v>
+        <v>7.215135135135291</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.422722722722826</v>
+        <v>2.558558558558614</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.68442442442475</v>
+        <v>11.87171171171197</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1560905640109351</v>
+        <v>0.3788083684975772</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1560905640109351</v>
+        <v>0.3788083684975772</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.167713045350039</v>
+        <v>4.603460538935749</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.1076268406670415, 14.44305293136712]</t>
+          <t>[-4.0938923272132985, 13.300813405084797]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1403050711281342</v>
+        <v>0.2920858009142597</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1403050711281342</v>
+        <v>0.2920858009142597</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.38368445203154</v>
+        <v>-2.062947728483388</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.616447999627889, 0.8490790955648091]</t>
+          <t>[-5.1196324725167, 0.9937370155499243]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2184218859421025</v>
+        <v>0.1808209296953545</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2184218859421025</v>
+        <v>0.1808209296953545</v>
       </c>
       <c r="T3" t="n">
-        <v>11.69099900960837</v>
+        <v>11.08903307907023</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.02362802699448, 16.358369992222254]</t>
+          <t>[6.416397800184022, 15.761668357956445]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.917880183283543e-06</v>
+        <v>1.907523778976739e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>7.917880183283543e-06</v>
+        <v>1.907523778976739e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>5.72352352352366</v>
+        <v>8.392072072072256</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.512162162162246</v>
+        <v>-4.042522522522608</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.95920920920957</v>
+        <v>20.82666666666712</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05691726871387426</v>
+        <v>0.4509490293006349</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05691726871387426</v>
+        <v>0.4509490293006349</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.609706839986782</v>
+        <v>3.312331369592845</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.6098805106177707, 15.829294190591334]</t>
+          <t>[-3.1819920051896258, 9.806654744375315]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.06875898325401741</v>
+        <v>0.30978700324876</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06875898325401741</v>
+        <v>0.30978700324876</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.415158316273234</v>
+        <v>-2.842842601446619</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.396369362923008, 0.5660527303765397]</t>
+          <t>[-5.981290517645432, 0.2956053147521933]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1097268464882022</v>
+        <v>0.07473565414383554</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1097268464882022</v>
+        <v>0.07473565414383554</v>
       </c>
       <c r="T4" t="n">
-        <v>11.65848923646434</v>
+        <v>10.45272191066313</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.388510216972129, 15.928468255956552]</t>
+          <t>[6.867311229718471, 14.038132591607788]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.718151420471159e-06</v>
+        <v>4.837552800562861e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.718151420471159e-06</v>
+        <v>4.837552800562861e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>9.990150150150388</v>
+        <v>11.56468468468493</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.3414414414415</v>
+        <v>-1.202522522522552</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.32174174174228</v>
+        <v>24.33189189189242</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1826018368863096</v>
+        <v>0.1040681842906682</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1826018368863096</v>
+        <v>0.1040681842906682</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.526090350991799</v>
+        <v>6.329898694252444</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.364654323126647, 13.416835025110245]</t>
+          <t>[-1.3424619929676052, 14.002259381472493]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1652593840991303</v>
+        <v>0.1035273658873042</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1652593840991303</v>
+        <v>0.1035273658873042</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.478053064092849</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.522158858562238, 0.5660527303765397]</t>
+          <t>[-5.377500938577123, 0.3207632138800385]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1080658365775606</v>
+        <v>0.08061708650077115</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1080658365775606</v>
+        <v>0.08061708650077115</v>
       </c>
       <c r="T5" t="n">
-        <v>10.92982936070154</v>
+        <v>10.86734419699205</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.866356203132273, 14.993302518270816]</t>
+          <t>[6.837092904602738, 14.897595489381363]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.265318798544413e-06</v>
+        <v>2.164761783607361e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.265318798544413e-06</v>
+        <v>2.164761783607361e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>10.25031031031055</v>
+        <v>10.28540540540563</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.3414414414415</v>
+        <v>-1.304864864864891</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.84206206206261</v>
+        <v>21.87567567567615</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09145835343322994</v>
+        <v>0.03320269698579303</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09145835343322994</v>
+        <v>0.03320269698579303</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.984633545959342</v>
+        <v>8.191444379212301</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.807955978445758, 12.777223070364442]</t>
+          <t>[-0.13949730943580718, 16.52238606786041]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.08274033303065176</v>
+        <v>0.05379458074699062</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08274033303065176</v>
+        <v>0.05379458074699062</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.817684702318773</v>
+        <v>-2.465474114528927</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.566158691704084, -1.069210712933463]</t>
+          <t>[-4.276842851733853, -0.6541053773240018]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.002214141147611759</v>
+        <v>0.008745071570594343</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002214141147611759</v>
+        <v>0.008745071570594343</v>
       </c>
       <c r="T6" t="n">
-        <v>11.77397223828268</v>
+        <v>12.18865981368737</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.925608140903002, 15.62233633566235]</t>
+          <t>[7.8832926343404806, 16.494026993034254]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.793427995000485e-07</v>
+        <v>8.628974510482834e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.793427995000485e-07</v>
+        <v>8.628974510482834e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>10.3098298298299</v>
+        <v>9.021101101101165</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.912212212212237</v>
+        <v>2.393353353353374</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.70744744744756</v>
+        <v>15.64884884884896</v>
       </c>
     </row>
     <row r="7">
@@ -1017,63 +1017,63 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1379609844904837</v>
+        <v>0.2906456528647204</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1379609844904837</v>
+        <v>0.2906456528647204</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.948295054675763</v>
+        <v>4.72178380957028</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.2597764490750727, 13.1563665584266]</t>
+          <t>[-2.7270461741641423, 12.170613793304703]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1034458379272971</v>
+        <v>0.2082461008887173</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1034458379272971</v>
+        <v>0.2082461008887173</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.918316298830158</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.780000834290776, -1.05663176336954]</t>
+          <t>[-6.188843185450164, 0.05031579825569299]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.002841845349236705</v>
+        <v>0.05365082899869034</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002841845349236705</v>
+        <v>0.05365082899869034</v>
       </c>
       <c r="T7" t="n">
-        <v>11.80121645015685</v>
+        <v>10.11293356169957</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.567070141324789, 16.035362758988917]</t>
+          <t>[5.814290085741356, 14.411577037657786]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.165393985091967e-06</v>
+        <v>2.186551073957155e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.165393985091967e-06</v>
+        <v>2.186551073957155e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>10.67803803803811</v>
+        <v>11.23035035035043</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.866186186186214</v>
+        <v>-0.184104104104108</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.48988988989001</v>
+        <v>22.64480480480496</v>
       </c>
     </row>
     <row r="8">
@@ -1103,63 +1103,63 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1229807750257503</v>
+        <v>0.06207026729265031</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1229807750257503</v>
+        <v>0.06207026729265031</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.899762377970614</v>
+        <v>7.8307154748271</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.5789632759134236, 13.378488031854651]</t>
+          <t>[-0.9674517829569567, 16.628882732611157]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1190916714768184</v>
+        <v>0.07975562540270054</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1190916714768184</v>
+        <v>0.07975562540270054</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.201316173686542</v>
+        <v>-2.176158274558696</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.226553543810046, 0.8239211964369622]</t>
+          <t>[-4.415211296937008, 0.06289474781961601]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1497200681447532</v>
+        <v>0.05650466943310617</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1497200681447532</v>
+        <v>0.05650466943310617</v>
       </c>
       <c r="T8" t="n">
-        <v>10.65272670585476</v>
+        <v>11.27025319171193</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.681767883492237, 14.62368552821729]</t>
+          <t>[6.733392893584361, 15.807113489839498]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.377752542415124e-06</v>
+        <v>9.097349810360811e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.377752542415124e-06</v>
+        <v>9.097349810360811e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>8.05455455455461</v>
+        <v>7.962502502502558</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3.014704704704723</v>
+        <v>-0.2301301301301333</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.12381381381394</v>
+        <v>16.15513513513525</v>
       </c>
     </row>
     <row r="9">
@@ -1189,63 +1189,63 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2686982772994753</v>
+        <v>0.2973574546816372</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2686982772994753</v>
+        <v>0.2973574546816372</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.227080257433286</v>
+        <v>4.457914812195375</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.1675422287683617, 13.621702743634934]</t>
+          <t>[-2.7134458715515954, 11.629275495942345]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2162734187831219</v>
+        <v>0.2170304856743204</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2162734187831219</v>
+        <v>0.2170304856743204</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.98747403109985</v>
+        <v>-1.761052938949233</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-5.125921947298662, 1.1509738850989626]</t>
+          <t>[-4.698237662125276, 1.1761317842268095]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2086902494720957</v>
+        <v>0.2335102063558581</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2086902494720957</v>
+        <v>0.2335102063558581</v>
       </c>
       <c r="T9" t="n">
-        <v>11.11590884932925</v>
+        <v>11.75257518760518</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.662300208392018, 15.569517490266477]</t>
+          <t>[7.8069592984286205, 15.698191076781747]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.405825347557183e-06</v>
+        <v>3.129946348767731e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>8.405825347557183e-06</v>
+        <v>3.129946348767731e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>7.272112112112163</v>
+        <v>6.443643643643686</v>
       </c>
       <c r="Y9" t="n">
-        <v>-4.211381381381408</v>
+        <v>-4.303433433433463</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.75560560560573</v>
+        <v>17.19072072072083</v>
       </c>
     </row>
     <row r="10">
@@ -1275,63 +1275,63 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2129258324217214</v>
+        <v>0.08222511396056253</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2129258324217214</v>
+        <v>0.08222511396056253</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.314279374730806</v>
+        <v>7.62723278651807</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.058288917233286, 12.686847666694899]</t>
+          <t>[-1.0879717287343178, 16.34243730177046]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1534934824447269</v>
+        <v>0.08474679779399419</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1534934824447269</v>
+        <v>0.08474679779399419</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.446579199851156</v>
+        <v>-1.270473905956233</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-4.119605982184813, 1.2264475824825016]</t>
+          <t>[-3.00636894577762, 0.4654211338651546]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2815220943833832</v>
+        <v>0.1474191531253826</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2815220943833832</v>
+        <v>0.1474191531253826</v>
       </c>
       <c r="T10" t="n">
-        <v>12.93628000918004</v>
+        <v>12.73685706324309</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.787670363223345, 17.084889655136738]</t>
+          <t>[8.079941435547504, 17.393772690938675]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.196045795737177e-07</v>
+        <v>1.663891038283793e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.196045795737177e-07</v>
+        <v>1.663891038283793e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>5.292992992993028</v>
+        <v>4.648628628628661</v>
       </c>
       <c r="Y10" t="n">
-        <v>-4.487537537537568</v>
+        <v>-1.702962962962974</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.07352352352362</v>
+        <v>11.0002202202203</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_9_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_9_sawtooth_05_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01898410260938044</v>
+        <v>0.1262655626868622</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01898410260938044</v>
+        <v>0.1262655626868622</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>8.953648041754393</v>
+        <v>5.311094917939887</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1.1814557756461035, 16.725840307862683]</t>
+          <t>[-1.7573146643305435, 12.379504500210317]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.02491860708663762</v>
+        <v>0.1371789373843946</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02491860708663762</v>
+        <v>0.1371789373843946</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.245316006828387</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.918316298830158, -0.6289474781961548]</t>
+          <t>[-3.245368987492159, 0.754736973835386]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.003146685633408808</v>
+        <v>0.2162941386530959</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003146685633408808</v>
+        <v>0.2162941386530959</v>
       </c>
       <c r="T2" t="n">
-        <v>12.93432694348022</v>
+        <v>11.92740583198393</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.50525445095578, 17.36339943600465]</t>
+          <t>[8.130586623097829, 15.724225040870023]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.674902871482089e-07</v>
+        <v>1.019163067272899e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.674902871482089e-07</v>
+        <v>1.019163067272899e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>7.215135135135291</v>
+        <v>5.151171171171296</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.558558558558614</v>
+        <v>-3.121921921921997</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.87171171171197</v>
+        <v>13.42426426426459</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3788083684975772</v>
+        <v>0.1338580599197274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3788083684975772</v>
+        <v>0.1338580599197274</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.603460538935749</v>
+        <v>5.713239341520127</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.0938923272132985, 13.300813405084797]</t>
+          <t>[-1.4485055041323722, 12.874984187172627]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2920858009142597</v>
+        <v>0.1151068557827206</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2920858009142597</v>
+        <v>0.1151068557827206</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.062947728483388</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.1196324725167, 0.9937370155499243]</t>
+          <t>[-3.2202110883643122, -0.02515789912784605]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1808209296953545</v>
+        <v>0.0466450918361303</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1808209296953545</v>
+        <v>0.0466450918361303</v>
       </c>
       <c r="T3" t="n">
-        <v>11.08903307907023</v>
+        <v>12.29461933661692</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.416397800184022, 15.761668357956445]</t>
+          <t>[8.182876283858612, 16.406362389375236]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.907523778976739e-05</v>
+        <v>2.892040644741911e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.907523778976739e-05</v>
+        <v>2.892040644741911e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>8.392072072072256</v>
+        <v>6.712132132132293</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.042522522522608</v>
+        <v>0.1040640640640662</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.82666666666712</v>
+        <v>13.32020020020052</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4509490293006349</v>
+        <v>0.4814155364751062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4509490293006349</v>
+        <v>0.4814155364751062</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.312331369592845</v>
+        <v>4.088695178607503</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.1819920051896258, 9.806654744375315]</t>
+          <t>[-5.166523529934433, 13.343913887149437]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.30978700324876</v>
+        <v>0.3783193742048465</v>
       </c>
       <c r="O4" t="n">
-        <v>0.30978700324876</v>
+        <v>0.3783193742048465</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.842842601446619</v>
+        <v>-2.125842476303003</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.981290517645432, 0.2956053147521933]</t>
+          <t>[-5.264290392501816, 1.0126054398958102]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.07473565414383554</v>
+        <v>0.1792694922416103</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07473565414383554</v>
+        <v>0.1792694922416103</v>
       </c>
       <c r="T4" t="n">
-        <v>10.45272191066313</v>
+        <v>13.10147572780114</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.867311229718471, 14.038132591607788]</t>
+          <t>[8.33869939753322, 17.86425205806907]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.837552800562861e-07</v>
+        <v>1.494101888876997e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>4.837552800562861e-07</v>
+        <v>1.494101888876997e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>11.56468468468493</v>
+        <v>8.793413413413624</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.202522522522552</v>
+        <v>-4.188578578578682</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.33189189189242</v>
+        <v>21.77540540540593</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1040681842906682</v>
+        <v>0.201197311417094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1040681842906682</v>
+        <v>0.201197311417094</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.329898694252444</v>
+        <v>5.476443025369619</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.3424619929676052, 14.002259381472493]</t>
+          <t>[-2.5060447118927733, 13.458930762632011]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1035273658873042</v>
+        <v>0.1738579418081467</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1035273658873042</v>
+        <v>0.1738579418081467</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.528368862348542</v>
+        <v>-2.616421509296003</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.377500938577123, 0.3207632138800385]</t>
+          <t>[-5.742290475930893, 0.5094474573388856]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08061708650077115</v>
+        <v>0.09874774261398689</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08061708650077115</v>
+        <v>0.09874774261398689</v>
       </c>
       <c r="T5" t="n">
-        <v>10.86734419699205</v>
+        <v>9.498592768143897</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.837092904602738, 14.897595489381363]</t>
+          <t>[5.379206580846443, 13.617978955441352]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.164761783607361e-06</v>
+        <v>2.977393276593077e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>2.164761783607361e-06</v>
+        <v>2.977393276593077e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>10.28540540540563</v>
+        <v>10.82266266266292</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.304864864864891</v>
+        <v>-2.107297297297348</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.87567567567615</v>
+        <v>23.75262262262319</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.99000000000015</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03320269698579303</v>
+        <v>0.05422274950673656</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03320269698579303</v>
+        <v>0.05422274950673656</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>8.191444379212301</v>
+        <v>5.962820792653567</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.13949730943580718, 16.52238606786041]</t>
+          <t>[-0.31706913172958906, 12.242710717036722]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.05379458074699062</v>
+        <v>0.06220137765311162</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05379458074699062</v>
+        <v>0.06220137765311162</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.465474114528927</v>
+        <v>-2.943474197958004</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.276842851733853, -0.6541053773240018]</t>
+          <t>[-4.402632347373082, -1.4843160485429263]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.008745071570594343</v>
+        <v>0.0001916750407180423</v>
       </c>
       <c r="S6" t="n">
-        <v>0.008745071570594343</v>
+        <v>0.0001916750407180423</v>
       </c>
       <c r="T6" t="n">
-        <v>12.18865981368737</v>
+        <v>10.13935159501599</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.8832926343404806, 16.494026993034254]</t>
+          <t>[6.6588280517646545, 13.619875138267329]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.628974510482834e-07</v>
+        <v>4.910583595307827e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>8.628974510482834e-07</v>
+        <v>4.910583595307827e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>9.021101101101165</v>
+        <v>10.54522522522526</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.393353353353374</v>
+        <v>5.317677677677702</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.64884884884896</v>
+        <v>15.77277277277283</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.99000000000015</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2906456528647204</v>
+        <v>0.2522466927711411</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2906456528647204</v>
+        <v>0.2522466927711411</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.72178380957028</v>
+        <v>5.350676516219419</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.7270461741641423, 12.170613793304703]</t>
+          <t>[-2.8482544978911477, 13.549607530329986]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2082461008887173</v>
+        <v>0.1953662466926258</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2082461008887173</v>
+        <v>0.1953662466926258</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.069263693597235</v>
+        <v>-2.792526803190928</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-6.188843185450164, 0.05031579825569299]</t>
+          <t>[-5.868079971570125, 0.2830263651882694]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.05365082899869034</v>
+        <v>0.07406820749542087</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05365082899869034</v>
+        <v>0.07406820749542087</v>
       </c>
       <c r="T7" t="n">
-        <v>10.11293356169957</v>
+        <v>12.75083019143914</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.814290085741356, 14.411577037657786]</t>
+          <t>[8.155723672728097, 17.34593671015018]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.186551073957155e-05</v>
+        <v>1.267524071035808e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.186551073957155e-05</v>
+        <v>1.267524071035808e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>11.23035035035043</v>
+        <v>10.00444444444448</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.184104104104108</v>
+        <v>-1.013963963963965</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.64480480480496</v>
+        <v>21.02285285285293</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.99000000000015</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06207026729265031</v>
+        <v>0.1976709808002708</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06207026729265031</v>
+        <v>0.1976709808002708</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>7.8307154748271</v>
+        <v>5.688147874659153</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.9674517829569567, 16.628882732611157]</t>
+          <t>[-2.446217622151069, 13.822513371469375]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.07975562540270054</v>
+        <v>0.1658817705180127</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07975562540270054</v>
+        <v>0.1658817705180127</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.176158274558696</v>
+        <v>-2.138421425866927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-4.415211296937008, 0.06289474781961601]</t>
+          <t>[-5.270579867283778, 0.9937370155499243]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.05650466943310617</v>
+        <v>0.1759112649802246</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05650466943310617</v>
+        <v>0.1759112649802246</v>
       </c>
       <c r="T8" t="n">
-        <v>11.27025319171193</v>
+        <v>10.49857529065704</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.733392893584361, 15.807113489839498]</t>
+          <t>[6.158709003156179, 14.838441578157909]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.097349810360811e-06</v>
+        <v>1.405546169142013e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>9.097349810360811e-06</v>
+        <v>1.405546169142013e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>7.962502502502558</v>
+        <v>7.661061061061091</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.2301301301301333</v>
+        <v>-3.560140140140151</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.15513513513525</v>
+        <v>18.88226226226233</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.99000000000015</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2973574546816372</v>
+        <v>0.7168674699066936</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2973574546816372</v>
+        <v>0.7168674699066936</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.457914812195375</v>
+        <v>2.631879134582583</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.7134458715515954, 11.629275495942345]</t>
+          <t>[-5.418763294242607, 10.682521563407773]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2170304856743204</v>
+        <v>0.5136093879961501</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2170304856743204</v>
+        <v>0.5136093879961501</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.761052938949233</v>
+        <v>-1.597526594618233</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-4.698237662125276, 1.1761317842268095]</t>
+          <t>[-4.735974510817045, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2335102063558581</v>
+        <v>0.3107415081500562</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2335102063558581</v>
+        <v>0.3107415081500562</v>
       </c>
       <c r="T9" t="n">
-        <v>11.75257518760518</v>
+        <v>10.75222741788028</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.8069592984286205, 15.698191076781747]</t>
+          <t>[6.297092469546985, 15.20736236621357]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.129946348767731e-07</v>
+        <v>1.459532205205782e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>3.129946348767731e-07</v>
+        <v>1.459532205205782e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>6.443643643643686</v>
+        <v>5.723263263263284</v>
       </c>
       <c r="Y9" t="n">
-        <v>-4.303433433433463</v>
+        <v>-5.520470470470487</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.19072072072083</v>
+        <v>16.96699699699705</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.99000000000015</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08222511396056253</v>
+        <v>0.04674815931442333</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08222511396056253</v>
+        <v>0.04674815931442333</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.62723278651807</v>
+        <v>9.002202196713171</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.0879717287343178, 16.34243730177046]</t>
+          <t>[-0.03486582172269337, 18.039270215149035]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08474679779399419</v>
+        <v>0.05085312590651592</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08474679779399419</v>
+        <v>0.05085312590651592</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.270473905956233</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.00636894577762, 0.4654211338651546]</t>
+          <t>[-2.6290004588599265, 0.44026323473730766]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1474191531253826</v>
+        <v>0.1578367457165912</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1474191531253826</v>
+        <v>0.1578367457165912</v>
       </c>
       <c r="T10" t="n">
-        <v>12.73685706324309</v>
+        <v>13.80426628338768</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.079941435547504, 17.393772690938675]</t>
+          <t>[8.83993706474167, 18.768595502033683]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.663891038283793e-06</v>
+        <v>1.218068919950355e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.663891038283793e-06</v>
+        <v>1.218068919950355e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>4.648628628628661</v>
+        <v>3.920660660660676</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.702962962962974</v>
+        <v>-1.57727727727728</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.0002202202203</v>
+        <v>9.418598598598631</v>
       </c>
     </row>
   </sheetData>
